--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>404822.7470358225</v>
+        <v>399443.3278022081</v>
       </c>
     </row>
     <row r="7">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.091688641907758</v>
+        <v>6.332151809111349</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="F5" t="n">
-        <v>5.80684546400848</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03641654712531528</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.672798411734712</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="J6" t="n">
-        <v>2.086813667659479</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1135,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>18.21830727030009</v>
+        <v>9.728415476776942</v>
       </c>
       <c r="D8" t="n">
         <v>18.21830727030009</v>
       </c>
       <c r="E8" t="n">
-        <v>9.728415476776936</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C9" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>18.21830727030009</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.089093774433753</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.888458418784966</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.504190801070983</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.5891238419305855</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>331.9324876174647</v>
+      </c>
+      <c r="W11" t="n">
         <v>376.853414642898</v>
       </c>
-      <c r="G11" t="n">
-        <v>268.6480004260931</v>
-      </c>
-      <c r="H11" t="n">
-        <v>279.6698018695921</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>69.45829138693392</v>
-      </c>
-      <c r="T11" t="n">
-        <v>212.2107538110959</v>
-      </c>
-      <c r="U11" t="n">
-        <v>255.6524694095456</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
     </row>
     <row r="12">
@@ -1451,22 +1451,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>102.9134467514543</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>92.31808107001368</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.16282838418415</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>65.74138684175004</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>137.2561117751268</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8682014225492</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>67.86838071075232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>35.65191302932602</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.4313629941665</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>78.72351363580546</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.59413806731187</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>218.1537346304886</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>262.4741962305305</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>376.853414642898</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>69.45829138693392</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2107538110959</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.26344241943499</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>376.853414642898</v>
       </c>
       <c r="Y14" t="n">
-        <v>376.853414642898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>33.75068774829268</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>10.1161659766159</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>92.31808107001368</v>
       </c>
       <c r="H15" t="n">
-        <v>45.16282838418415</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>137.2561117751268</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8682014225492</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -1751,10 +1751,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>202.7822504972413</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>7.72746854345703</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="C17" t="n">
-        <v>359.6578090038363</v>
+        <v>331.9324876174645</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="G17" t="n">
-        <v>376.853414642898</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>279.6698018695921</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.45829138693392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>376.853414642898</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.88571991483795</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.31808107001368</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>65.74138684175004</v>
       </c>
       <c r="T18" t="n">
-        <v>137.2561117751268</v>
+        <v>8.610935902840376</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.8682014225492</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
         <v>161.8425727710037</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.59413806731187</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>180.945749816791</v>
+        <v>197.5398878841029</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>376.853414642898</v>
       </c>
       <c r="G20" t="n">
-        <v>376.853414642898</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.2107538110959</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6524694095456</v>
       </c>
       <c r="V20" t="n">
-        <v>119.7217338063689</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>376.853414642898</v>
       </c>
       <c r="X20" t="n">
-        <v>376.853414642898</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>76.2800182079191</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>57.28227693111812</v>
+        <v>92.31808107001368</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>65.74138684175004</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.2561117751268</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>143.9771757696694</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>75.14489714620835</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.59413806731187</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.8161618607986</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>24.12958795599238</v>
+        <v>238.057627995748</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3462424023505</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>177.9985692253002</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>364.0150311847602</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T24" t="n">
         <v>135.5372539824022</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>270.7422656288514</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>191.5305849623053</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>74.8709871248718</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>350.5636001140161</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H27" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T27" t="n">
         <v>135.5372539824022</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>34.49606216928142</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>206.937233451813</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>379.6771683582643</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>118.423029993522</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>121.7242102441098</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>25.9001511323549</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>274.4096910531864</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.4562256955925</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>80.71516322325084</v>
       </c>
       <c r="W34" t="n">
-        <v>157.2980222015714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>134.7037040903123</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>63.8289659325248</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>95.95648971690852</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>150.5856664684936</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>81.20501960776484</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>41.95582820782024</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>167.4562256955915</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3568,10 +3568,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>91.89163974603008</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570794</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>178.5700660017324</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>22.84535855618396</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>31.41348467811153</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>219.4957160335302</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>83.1308311868092</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>36.39623310189878</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>101.5808607649755</v>
+        <v>122.5058435663484</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998681</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T45" t="n">
         <v>135.5372539824022</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>32.69062406119419</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>80.71516322325084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.89646569231152</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="C5" t="n">
-        <v>22.89646569231152</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="D5" t="n">
-        <v>14.72304282169763</v>
+        <v>16.99418083258042</v>
       </c>
       <c r="E5" t="n">
-        <v>6.549619951083727</v>
+        <v>8.820757961966519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6841194823882927</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G5" t="n">
         <v>0.6473350913526207</v>
@@ -4585,34 +4585,34 @@
         <v>25.47097909087686</v>
       </c>
       <c r="P5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="R5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="S5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="T5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="U5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="V5" t="n">
-        <v>32.36675456763103</v>
+        <v>25.47097909087686</v>
       </c>
       <c r="W5" t="n">
         <v>32.36675456763103</v>
       </c>
       <c r="X5" t="n">
-        <v>32.36675456763103</v>
+        <v>24.68715977578234</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.06988856292542</v>
+        <v>23.39029377107673</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="C6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="D6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="E6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="F6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="G6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="H6" t="n">
-        <v>2.755227684948053</v>
+        <v>16.40227705068624</v>
       </c>
       <c r="I6" t="n">
-        <v>2.755227684948053</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="J6" t="n">
         <v>0.6473350913526207</v>
@@ -4658,7 +4658,7 @@
         <v>16.18551978455386</v>
       </c>
       <c r="N6" t="n">
-        <v>19.68574965415786</v>
+        <v>24.19629154004254</v>
       </c>
       <c r="O6" t="n">
         <v>27.69652140964654</v>
@@ -4682,16 +4682,16 @@
         <v>19.10207342617585</v>
       </c>
       <c r="V6" t="n">
-        <v>10.92865055556195</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="W6" t="n">
-        <v>10.92865055556195</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="X6" t="n">
-        <v>10.92865055556195</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.755227684948053</v>
+        <v>19.10207342617585</v>
       </c>
     </row>
     <row r="7">
@@ -4783,10 +4783,10 @@
         <v>48.0888080335201</v>
       </c>
       <c r="C8" t="n">
-        <v>29.68647745745939</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="D8" t="n">
-        <v>11.28414688139869</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="E8" t="n">
         <v>1.457464581624007</v>
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.06856792907897</v>
+        <v>39.47622714604563</v>
       </c>
       <c r="C9" t="n">
-        <v>19.85979515768471</v>
+        <v>39.47622714604563</v>
       </c>
       <c r="D9" t="n">
-        <v>1.457464581624007</v>
+        <v>21.07389656998493</v>
       </c>
       <c r="E9" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="F9" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="G9" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="H9" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="I9" t="n">
-        <v>1.457464581624007</v>
+        <v>6.395301368275488</v>
       </c>
       <c r="J9" t="n">
         <v>1.457464581624007</v>
       </c>
       <c r="K9" t="n">
-        <v>1.457464581624007</v>
+        <v>5.886021080118643</v>
       </c>
       <c r="L9" t="n">
-        <v>14.93961824937913</v>
+        <v>19.36817474787377</v>
       </c>
       <c r="M9" t="n">
-        <v>32.97574244697623</v>
+        <v>37.40429894547086</v>
       </c>
       <c r="N9" t="n">
-        <v>51.01186664457332</v>
+        <v>46.70753313916128</v>
       </c>
       <c r="O9" t="n">
         <v>62.96599962173941</v>
@@ -4904,31 +4904,31 @@
         <v>72.87322908120038</v>
       </c>
       <c r="Q9" t="n">
-        <v>72.87322908120038</v>
+        <v>71.35384443365393</v>
       </c>
       <c r="R9" t="n">
-        <v>72.87322908120038</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="S9" t="n">
-        <v>72.87322908120038</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="T9" t="n">
-        <v>54.47089850513967</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="U9" t="n">
-        <v>54.47089850513967</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="V9" t="n">
-        <v>54.47089850513967</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="W9" t="n">
-        <v>54.47089850513967</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="X9" t="n">
-        <v>54.47089850513967</v>
+        <v>57.87855772210634</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.06856792907897</v>
+        <v>57.87855772210634</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L10" t="n">
         <v>1.457464581624007</v>
@@ -4986,28 +4986,28 @@
         <v>2.05253916943268</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="T10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="W10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="X10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.6646539174754</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="C11" t="n">
-        <v>964.6646539174754</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="D11" t="n">
-        <v>964.6646539174754</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="E11" t="n">
-        <v>964.6646539174754</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="F11" t="n">
-        <v>584.0046391266694</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="G11" t="n">
-        <v>312.6430225346562</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="H11" t="n">
         <v>30.14827317143184</v>
       </c>
       <c r="I11" t="n">
-        <v>52.66717475623659</v>
+        <v>52.66717475623636</v>
       </c>
       <c r="J11" t="n">
         <v>148.4140318550301</v>
       </c>
       <c r="K11" t="n">
-        <v>300.1587600488454</v>
+        <v>300.1587600488451</v>
       </c>
       <c r="L11" t="n">
-        <v>494.4080498619226</v>
+        <v>494.4080498619224</v>
       </c>
       <c r="M11" t="n">
-        <v>715.6940961948139</v>
+        <v>715.6940961948137</v>
       </c>
       <c r="N11" t="n">
-        <v>941.3105259663706</v>
+        <v>941.3105259663705</v>
       </c>
       <c r="O11" t="n">
         <v>1152.186742918217</v>
@@ -5068,25 +5068,25 @@
         <v>1507.413658571592</v>
       </c>
       <c r="S11" t="n">
-        <v>1437.25376828176</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="T11" t="n">
-        <v>1222.899471502875</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="U11" t="n">
-        <v>964.6646539174754</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="V11" t="n">
-        <v>964.6646539174754</v>
+        <v>1172.12831754385</v>
       </c>
       <c r="W11" t="n">
-        <v>964.6646539174754</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="X11" t="n">
-        <v>964.6646539174754</v>
+        <v>410.8082879622378</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.6646539174754</v>
+        <v>30.14827317143184</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>321.7466241549982</v>
+        <v>272.9708551973431</v>
       </c>
       <c r="C12" t="n">
-        <v>321.7466241549982</v>
+        <v>169.0178786807226</v>
       </c>
       <c r="D12" t="n">
-        <v>321.7466241549982</v>
+        <v>169.0178786807226</v>
       </c>
       <c r="E12" t="n">
-        <v>217.0446904279354</v>
+        <v>169.0178786807226</v>
       </c>
       <c r="F12" t="n">
-        <v>123.3988601108396</v>
+        <v>169.0178786807226</v>
       </c>
       <c r="G12" t="n">
-        <v>30.14827317143184</v>
+        <v>75.76729174131482</v>
       </c>
       <c r="H12" t="n">
         <v>30.14827317143184</v>
@@ -5147,25 +5147,25 @@
         <v>1105.512264024852</v>
       </c>
       <c r="S12" t="n">
-        <v>1039.106822770559</v>
+        <v>1105.512264024852</v>
       </c>
       <c r="T12" t="n">
-        <v>900.4642856239666</v>
+        <v>966.8697268782596</v>
       </c>
       <c r="U12" t="n">
-        <v>715.7489306516946</v>
+        <v>966.8697268782596</v>
       </c>
       <c r="V12" t="n">
-        <v>715.7489306516946</v>
+        <v>761.8965880175258</v>
       </c>
       <c r="W12" t="n">
-        <v>519.2275534849118</v>
+        <v>565.375210850743</v>
       </c>
       <c r="X12" t="n">
-        <v>519.2275534849118</v>
+        <v>401.8978646174058</v>
       </c>
       <c r="Y12" t="n">
-        <v>450.673633575061</v>
+        <v>401.8978646174058</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.14827317143184</v>
+        <v>283.4884647464803</v>
       </c>
       <c r="C13" t="n">
-        <v>30.14827317143184</v>
+        <v>283.4884647464803</v>
       </c>
       <c r="D13" t="n">
-        <v>30.14827317143184</v>
+        <v>283.4884647464803</v>
       </c>
       <c r="E13" t="n">
-        <v>30.14827317143184</v>
+        <v>247.4764313835247</v>
       </c>
       <c r="F13" t="n">
-        <v>30.14827317143184</v>
+        <v>247.4764313835247</v>
       </c>
       <c r="G13" t="n">
-        <v>30.14827317143184</v>
+        <v>247.4764313835247</v>
       </c>
       <c r="H13" t="n">
-        <v>30.14827317143184</v>
+        <v>109.6669738136596</v>
       </c>
       <c r="I13" t="n">
         <v>30.14827317143184</v>
@@ -5223,28 +5223,28 @@
         <v>509.8312330567383</v>
       </c>
       <c r="R13" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="S13" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="T13" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="U13" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="V13" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="W13" t="n">
-        <v>272.7121697256267</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="X13" t="n">
-        <v>30.14827317143184</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.14827317143184</v>
+        <v>283.4884647464803</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>675.9337387001475</v>
+        <v>410.8082879622378</v>
       </c>
       <c r="C14" t="n">
-        <v>675.9337387001475</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="D14" t="n">
-        <v>675.9337387001475</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="E14" t="n">
-        <v>675.9337387001475</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="F14" t="n">
-        <v>410.8082879622378</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="G14" t="n">
         <v>30.14827317143184</v>
@@ -5308,22 +5308,22 @@
         <v>1437.25376828176</v>
       </c>
       <c r="T14" t="n">
-        <v>1437.25376828176</v>
+        <v>1222.899471502875</v>
       </c>
       <c r="U14" t="n">
-        <v>1437.25376828176</v>
+        <v>1172.12831754385</v>
       </c>
       <c r="V14" t="n">
-        <v>1437.25376828176</v>
+        <v>1172.12831754385</v>
       </c>
       <c r="W14" t="n">
-        <v>1437.25376828176</v>
+        <v>1172.12831754385</v>
       </c>
       <c r="X14" t="n">
-        <v>1056.593753490954</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="Y14" t="n">
-        <v>675.9337387001475</v>
+        <v>791.4683027530439</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>296.7553127839726</v>
+        <v>355.8250467917268</v>
       </c>
       <c r="C15" t="n">
-        <v>262.6637089978184</v>
+        <v>238.3191433092315</v>
       </c>
       <c r="D15" t="n">
-        <v>262.6637089978184</v>
+        <v>228.1007938379024</v>
       </c>
       <c r="E15" t="n">
-        <v>262.6637089978184</v>
+        <v>123.3988601108396</v>
       </c>
       <c r="F15" t="n">
-        <v>169.0178786807226</v>
+        <v>123.3988601108396</v>
       </c>
       <c r="G15" t="n">
-        <v>75.76729174131482</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="H15" t="n">
         <v>30.14827317143184</v>
@@ -5387,22 +5387,22 @@
         <v>1105.512264024852</v>
       </c>
       <c r="T15" t="n">
-        <v>966.8697268782596</v>
+        <v>1105.512264024852</v>
       </c>
       <c r="U15" t="n">
-        <v>966.8697268782596</v>
+        <v>920.7969090525804</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8965880175258</v>
+        <v>715.8237701918467</v>
       </c>
       <c r="W15" t="n">
-        <v>565.375210850743</v>
+        <v>519.3023930250639</v>
       </c>
       <c r="X15" t="n">
-        <v>565.375210850743</v>
+        <v>355.8250467917268</v>
       </c>
       <c r="Y15" t="n">
-        <v>425.6823222040354</v>
+        <v>355.8250467917268</v>
       </c>
     </row>
     <row r="16">
@@ -5469,19 +5469,19 @@
         <v>509.8312330567383</v>
       </c>
       <c r="U16" t="n">
-        <v>305.0006769989188</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="V16" t="n">
-        <v>305.0006769989188</v>
+        <v>228.1197656647672</v>
       </c>
       <c r="W16" t="n">
-        <v>30.14827317143184</v>
+        <v>228.1197656647672</v>
       </c>
       <c r="X16" t="n">
-        <v>30.14827317143184</v>
+        <v>220.3142418834975</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.14827317143184</v>
+        <v>220.3142418834975</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1056.593753490954</v>
+        <v>1126.753643780786</v>
       </c>
       <c r="C17" t="n">
-        <v>693.3030373254622</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="D17" t="n">
-        <v>693.3030373254622</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="E17" t="n">
-        <v>693.3030373254622</v>
+        <v>410.8082879622378</v>
       </c>
       <c r="F17" t="n">
-        <v>693.3030373254622</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="G17" t="n">
-        <v>312.6430225346562</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="H17" t="n">
         <v>30.14827317143184</v>
@@ -5542,25 +5542,25 @@
         <v>1507.413658571592</v>
       </c>
       <c r="S17" t="n">
-        <v>1437.25376828176</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="T17" t="n">
-        <v>1437.25376828176</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="U17" t="n">
-        <v>1437.25376828176</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="V17" t="n">
-        <v>1437.25376828176</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="W17" t="n">
-        <v>1056.593753490954</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="X17" t="n">
-        <v>1056.593753490954</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1056.593753490954</v>
+        <v>1507.413658571592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>263.3939024631253</v>
+        <v>346.0019406980857</v>
       </c>
       <c r="C18" t="n">
-        <v>217.0446904279354</v>
+        <v>228.4960372155905</v>
       </c>
       <c r="D18" t="n">
-        <v>217.0446904279354</v>
+        <v>228.4960372155905</v>
       </c>
       <c r="E18" t="n">
-        <v>217.0446904279354</v>
+        <v>123.7941034885277</v>
       </c>
       <c r="F18" t="n">
-        <v>123.3988601108396</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="G18" t="n">
         <v>30.14827317143184</v>
@@ -5624,22 +5624,22 @@
         <v>1039.106822770559</v>
       </c>
       <c r="T18" t="n">
-        <v>900.4642856239666</v>
+        <v>1030.408907717185</v>
       </c>
       <c r="U18" t="n">
-        <v>900.4642856239666</v>
+        <v>845.6935527449132</v>
       </c>
       <c r="V18" t="n">
-        <v>695.4911467632328</v>
+        <v>845.6935527449132</v>
       </c>
       <c r="W18" t="n">
-        <v>695.4911467632328</v>
+        <v>649.1721755781304</v>
       </c>
       <c r="X18" t="n">
-        <v>532.0138005298957</v>
+        <v>485.6948293447933</v>
       </c>
       <c r="Y18" t="n">
-        <v>392.320911883188</v>
+        <v>346.0019406980857</v>
       </c>
     </row>
     <row r="19">
@@ -5697,22 +5697,22 @@
         <v>509.8312330567383</v>
       </c>
       <c r="R19" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="S19" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="T19" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="U19" t="n">
-        <v>212.9217578348571</v>
+        <v>229.6835134584044</v>
       </c>
       <c r="V19" t="n">
-        <v>212.9217578348571</v>
+        <v>229.6835134584044</v>
       </c>
       <c r="W19" t="n">
-        <v>212.9217578348571</v>
+        <v>229.6835134584044</v>
       </c>
       <c r="X19" t="n">
         <v>30.14827317143184</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>410.8082879622378</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="C20" t="n">
-        <v>410.8082879622378</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="D20" t="n">
-        <v>410.8082879622378</v>
+        <v>791.4683027530439</v>
       </c>
       <c r="E20" t="n">
         <v>410.8082879622378</v>
       </c>
       <c r="F20" t="n">
-        <v>410.8082879622378</v>
+        <v>30.14827317143184</v>
       </c>
       <c r="G20" t="n">
         <v>30.14827317143184</v>
@@ -5749,22 +5749,22 @@
         <v>30.14827317143184</v>
       </c>
       <c r="I20" t="n">
-        <v>52.66717475623636</v>
+        <v>52.66717475623659</v>
       </c>
       <c r="J20" t="n">
         <v>148.4140318550301</v>
       </c>
       <c r="K20" t="n">
-        <v>300.1587600488451</v>
+        <v>300.1587600488454</v>
       </c>
       <c r="L20" t="n">
-        <v>494.4080498619224</v>
+        <v>494.4080498619226</v>
       </c>
       <c r="M20" t="n">
-        <v>715.6940961948137</v>
+        <v>715.6940961948139</v>
       </c>
       <c r="N20" t="n">
-        <v>941.3105259663705</v>
+        <v>941.3105259663706</v>
       </c>
       <c r="O20" t="n">
         <v>1152.186742918217</v>
@@ -5782,22 +5782,22 @@
         <v>1507.413658571592</v>
       </c>
       <c r="T20" t="n">
-        <v>1293.059361792707</v>
+        <v>1507.413658571592</v>
       </c>
       <c r="U20" t="n">
-        <v>1293.059361792707</v>
+        <v>1249.178840986192</v>
       </c>
       <c r="V20" t="n">
-        <v>1172.12831754385</v>
+        <v>1249.178840986192</v>
       </c>
       <c r="W20" t="n">
+        <v>868.5188261953864</v>
+      </c>
+      <c r="X20" t="n">
+        <v>868.5188261953864</v>
+      </c>
+      <c r="Y20" t="n">
         <v>791.4683027530439</v>
-      </c>
-      <c r="X20" t="n">
-        <v>410.8082879622378</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>410.8082879622378</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>205.5150624429353</v>
+        <v>321.7466241549982</v>
       </c>
       <c r="C21" t="n">
-        <v>88.00915896044005</v>
+        <v>321.7466241549982</v>
       </c>
       <c r="D21" t="n">
-        <v>88.00915896044005</v>
+        <v>321.7466241549982</v>
       </c>
       <c r="E21" t="n">
-        <v>88.00915896044005</v>
+        <v>217.0446904279354</v>
       </c>
       <c r="F21" t="n">
-        <v>88.00915896044005</v>
+        <v>123.3988601108396</v>
       </c>
       <c r="G21" t="n">
         <v>30.14827317143184</v>
@@ -5858,25 +5858,25 @@
         <v>1105.512264024852</v>
       </c>
       <c r="S21" t="n">
-        <v>1039.106822770559</v>
+        <v>1105.512264024852</v>
       </c>
       <c r="T21" t="n">
-        <v>1039.106822770559</v>
+        <v>966.8697268782596</v>
       </c>
       <c r="U21" t="n">
-        <v>1039.106822770559</v>
+        <v>966.8697268782596</v>
       </c>
       <c r="V21" t="n">
-        <v>834.1336839098255</v>
+        <v>821.4382362018258</v>
       </c>
       <c r="W21" t="n">
-        <v>637.6123067430427</v>
+        <v>624.916859035043</v>
       </c>
       <c r="X21" t="n">
-        <v>474.1349605097056</v>
+        <v>461.4395128017059</v>
       </c>
       <c r="Y21" t="n">
-        <v>334.442071862998</v>
+        <v>321.7466241549982</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="C22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="D22" t="n">
-        <v>30.14827317143184</v>
+        <v>106.0522096827534</v>
       </c>
       <c r="E22" t="n">
         <v>30.14827317143184</v>
@@ -5934,28 +5934,28 @@
         <v>509.8312330567383</v>
       </c>
       <c r="R22" t="n">
-        <v>493.069477433191</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="S22" t="n">
-        <v>334.6693139374348</v>
+        <v>509.8312330567383</v>
       </c>
       <c r="T22" t="n">
-        <v>310.2959927697657</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="U22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="V22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="W22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="X22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.14827317143184</v>
+        <v>269.3689825559827</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1082.026890290378</v>
+        <v>1325.522976534367</v>
       </c>
       <c r="C23" t="n">
-        <v>655.1261603036783</v>
+        <v>898.6222465476676</v>
       </c>
       <c r="D23" t="n">
-        <v>475.329625732668</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="E23" t="n">
-        <v>475.329625732668</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="F23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
@@ -6007,34 +6007,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U23" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="V23" t="n">
-        <v>1890.138238822284</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="W23" t="n">
-        <v>1493.746889122631</v>
+        <v>2142.58024541173</v>
       </c>
       <c r="X23" t="n">
-        <v>1082.026890290378</v>
+        <v>1730.860246579477</v>
       </c>
       <c r="Y23" t="n">
-        <v>1082.026890290378</v>
+        <v>1325.522976534367</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.1777999452937</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C24" t="n">
-        <v>486.6718964627985</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>382.8319379780834</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510206</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339248</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662158</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145956</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570807</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8010428266101</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L24" t="n">
-        <v>583.1000388744363</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M24" t="n">
-        <v>866.6631241688304</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.072685361482</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O24" t="n">
         <v>1424.874394922369</v>
@@ -6089,10 +6089,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R24" t="n">
-        <v>1817.767364655854</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S24" t="n">
         <v>1759.362893661493</v>
@@ -6101,19 +6101,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.769560272918</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.796421412184</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W24" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X24" t="n">
-        <v>872.7976980120641</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y24" t="n">
-        <v>733.1048093653565</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="C25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="D25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="E25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
@@ -6171,28 +6171,28 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T25" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U25" t="n">
-        <v>606.7693151415262</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V25" t="n">
-        <v>325.0578477495551</v>
+        <v>599.0591311496514</v>
       </c>
       <c r="W25" t="n">
-        <v>50.20544392206816</v>
+        <v>405.5938938139894</v>
       </c>
       <c r="X25" t="n">
-        <v>50.20544392206816</v>
+        <v>405.5938938139894</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.20544392206816</v>
+        <v>405.5938938139894</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>903.0831137609105</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="C26" t="n">
-        <v>476.1823837742106</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D26" t="n">
-        <v>476.1823837742106</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E26" t="n">
-        <v>50.20544392206814</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="F26" t="n">
         <v>50.20544392206814</v>
@@ -6229,10 +6229,10 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L26" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080623</v>
@@ -6253,25 +6253,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S26" t="n">
-        <v>2458.457769745854</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T26" t="n">
-        <v>2458.457769745854</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U26" t="n">
-        <v>2200.287357519296</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="V26" t="n">
-        <v>2124.660097797203</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="W26" t="n">
-        <v>1728.26874809755</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="X26" t="n">
-        <v>1728.26874809755</v>
+        <v>2098.552197271154</v>
       </c>
       <c r="Y26" t="n">
-        <v>1322.931478052441</v>
+        <v>1744.44755069134</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D27" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H27" t="n">
         <v>50.20544392206814</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.20544392206814</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206814</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206814</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206814</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206814</v>
+        <v>284.0866020551251</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206814</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="H28" t="n">
-        <v>50.20544392206814</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I28" t="n">
         <v>50.20544392206814</v>
@@ -6408,28 +6408,28 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R28" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1396173237059</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1396173237059</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U28" t="n">
-        <v>519.112108786521</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V28" t="n">
-        <v>519.112108786521</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W28" t="n">
-        <v>519.112108786521</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X28" t="n">
-        <v>276.5482122323261</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.20544392206814</v>
+        <v>318.9311092968235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1149.780769532642</v>
+        <v>1283.911085994742</v>
       </c>
       <c r="C29" t="n">
-        <v>1149.780769532642</v>
+        <v>857.010356008042</v>
       </c>
       <c r="D29" t="n">
-        <v>726.4881487176426</v>
+        <v>433.7177351930422</v>
       </c>
       <c r="E29" t="n">
-        <v>726.4881487176426</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F29" t="n">
-        <v>726.4881487176426</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G29" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H29" t="n">
         <v>50.20544392206814</v>
@@ -6466,10 +6466,10 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998224</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230811</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M29" t="n">
         <v>1196.576905080623</v>
@@ -6496,19 +6496,19 @@
         <v>2458.457769745854</v>
       </c>
       <c r="U29" t="n">
-        <v>2338.838547530176</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V29" t="n">
-        <v>1981.349132656425</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W29" t="n">
-        <v>1981.349132656425</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="X29" t="n">
-        <v>1569.629133824172</v>
+        <v>1689.248356039851</v>
       </c>
       <c r="Y29" t="n">
-        <v>1569.629133824172</v>
+        <v>1283.911085994742</v>
       </c>
     </row>
     <row r="30">
@@ -6524,34 +6524,34 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339246</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662147</v>
       </c>
       <c r="H30" t="n">
         <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145955</v>
       </c>
       <c r="J30" t="n">
         <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>342.8010428266099</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L30" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M30" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N30" t="n">
         <v>1160.072685361481</v>
@@ -6563,10 +6563,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S30" t="n">
         <v>1759.362893661493</v>
@@ -6578,7 +6578,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
@@ -6645,25 +6645,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R31" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1396173237059</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1396173237059</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U31" t="n">
-        <v>448.0115954708781</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V31" t="n">
-        <v>325.0578477495551</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W31" t="n">
-        <v>50.20544392206814</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X31" t="n">
-        <v>50.20544392206814</v>
+        <v>76.36721274262865</v>
       </c>
       <c r="Y31" t="n">
         <v>50.20544392206814</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1324.59918639981</v>
+        <v>1430.570384818672</v>
       </c>
       <c r="C32" t="n">
-        <v>1324.59918639981</v>
+        <v>1003.669654831972</v>
       </c>
       <c r="D32" t="n">
-        <v>901.3065655848104</v>
+        <v>1003.669654831972</v>
       </c>
       <c r="E32" t="n">
-        <v>475.329625732668</v>
+        <v>1003.669654831972</v>
       </c>
       <c r="F32" t="n">
-        <v>50.20544392206816</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G32" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H32" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230815</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080624</v>
@@ -6736,16 +6736,16 @@
         <v>2247.627653696034</v>
       </c>
       <c r="V32" t="n">
-        <v>1890.138238822284</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="W32" t="n">
-        <v>1493.746889122631</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="X32" t="n">
-        <v>1493.746889122631</v>
+        <v>1835.907654863782</v>
       </c>
       <c r="Y32" t="n">
-        <v>1324.59918639981</v>
+        <v>1430.570384818672</v>
       </c>
     </row>
     <row r="33">
@@ -6882,25 +6882,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1396173237059</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>489.2203568875943</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U34" t="n">
-        <v>209.0923350347666</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V34" t="n">
-        <v>209.0923350347666</v>
+        <v>519.112108786521</v>
       </c>
       <c r="W34" t="n">
-        <v>50.20544392206816</v>
+        <v>519.112108786521</v>
       </c>
       <c r="X34" t="n">
-        <v>50.20544392206816</v>
+        <v>276.5482122323261</v>
       </c>
       <c r="Y34" t="n">
         <v>50.20544392206816</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1151.612330528242</v>
+        <v>1034.68659411364</v>
       </c>
       <c r="C35" t="n">
-        <v>1151.612330528242</v>
+        <v>898.6222465476677</v>
       </c>
       <c r="D35" t="n">
-        <v>1151.612330528242</v>
+        <v>475.329625732668</v>
       </c>
       <c r="E35" t="n">
-        <v>1151.612330528242</v>
+        <v>475.329625732668</v>
       </c>
       <c r="F35" t="n">
-        <v>726.4881487176426</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G35" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
@@ -6964,25 +6964,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2299.442080053587</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2041.271667827028</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V35" t="n">
-        <v>2041.271667827028</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W35" t="n">
-        <v>1976.797964864882</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.797964864882</v>
+        <v>1034.68659411364</v>
       </c>
       <c r="Y35" t="n">
-        <v>1571.460694819772</v>
+        <v>1034.68659411364</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H36" t="n">
         <v>50.20544392206816</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>455.9483762805647</v>
+        <v>446.9523973430922</v>
       </c>
       <c r="C37" t="n">
-        <v>455.9483762805647</v>
+        <v>446.9523973430922</v>
       </c>
       <c r="D37" t="n">
-        <v>455.9483762805647</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="E37" t="n">
-        <v>455.9483762805647</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F37" t="n">
-        <v>284.0866020551252</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G37" t="n">
-        <v>118.8641208752695</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
         <v>50.20544392206816</v>
@@ -7119,28 +7119,28 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R37" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1396173237059</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1396173237059</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U37" t="n">
-        <v>646.1143449926303</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V37" t="n">
-        <v>646.1143449926303</v>
+        <v>446.9523973430922</v>
       </c>
       <c r="W37" t="n">
-        <v>646.1143449926303</v>
+        <v>446.9523973430922</v>
       </c>
       <c r="X37" t="n">
-        <v>646.1143449926303</v>
+        <v>446.9523973430922</v>
       </c>
       <c r="Y37" t="n">
-        <v>646.1143449926303</v>
+        <v>446.9523973430922</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>519.4857983611117</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="C38" t="n">
-        <v>92.58506837441183</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D38" t="n">
-        <v>92.58506837441183</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E38" t="n">
-        <v>50.20544392206816</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853081</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998226</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N38" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O38" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P38" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>2510.272196103408</v>
+        <v>2078.479950973214</v>
       </c>
       <c r="V38" t="n">
-        <v>2152.782781229657</v>
+        <v>1720.990536099463</v>
       </c>
       <c r="W38" t="n">
-        <v>1756.391431530004</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="X38" t="n">
-        <v>1344.671432697751</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="Y38" t="n">
-        <v>939.3341626526418</v>
+        <v>1324.59918639981</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1296.682631392848</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C39" t="n">
-        <v>1179.176727910353</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>1075.336769425638</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E39" t="n">
-        <v>970.6348356985749</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F39" t="n">
-        <v>876.989005381479</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G39" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H39" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I39" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J39" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K39" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L39" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M39" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N39" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P39" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q39" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R39" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S39" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T39" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U39" t="n">
-        <v>2130.274391720472</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V39" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W39" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X39" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2048.186924669283</v>
+        <v>387.4004882230078</v>
       </c>
       <c r="C40" t="n">
-        <v>2048.186924669283</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="D40" t="n">
-        <v>2048.186924669283</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="E40" t="n">
-        <v>2048.186924669283</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F40" t="n">
-        <v>2048.186924669283</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G40" t="n">
-        <v>1882.964443489427</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H40" t="n">
-        <v>1748.365718437055</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I40" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J40" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K40" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L40" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M40" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N40" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O40" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P40" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q40" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R40" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T40" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>2329.898392061254</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V40" t="n">
-        <v>2048.186924669283</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="W40" t="n">
-        <v>2048.186924669283</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="X40" t="n">
-        <v>2048.186924669283</v>
+        <v>577.5664569350735</v>
       </c>
       <c r="Y40" t="n">
-        <v>2048.186924669283</v>
+        <v>577.5664569350735</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>931.2057971933634</v>
+        <v>1153.388878704342</v>
       </c>
       <c r="C41" t="n">
-        <v>899.4750045892104</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D41" t="n">
-        <v>476.1823837742106</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E41" t="n">
-        <v>50.20544392206814</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F41" t="n">
-        <v>50.20544392206814</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H41" t="n">
         <v>50.20544392206814</v>
@@ -7417,7 +7417,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230813</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080623</v>
@@ -7438,25 +7438,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U41" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>2152.782781229656</v>
+        <v>1978.574513040982</v>
       </c>
       <c r="W41" t="n">
-        <v>1756.391431530003</v>
+        <v>1978.574513040982</v>
       </c>
       <c r="X41" t="n">
-        <v>1756.391431530003</v>
+        <v>1978.574513040982</v>
       </c>
       <c r="Y41" t="n">
-        <v>1351.054161484893</v>
+        <v>1573.237242995873</v>
       </c>
     </row>
     <row r="42">
@@ -7472,16 +7472,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H42" t="n">
         <v>50.20544392206814</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2270.828688255938</v>
+        <v>378.7446979751531</v>
       </c>
       <c r="C43" t="n">
-        <v>2098.856125134854</v>
+        <v>378.7446979751531</v>
       </c>
       <c r="D43" t="n">
-        <v>1935.539352261625</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="E43" t="n">
-        <v>1851.568815709292</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F43" t="n">
-        <v>1679.707041483853</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G43" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H43" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I43" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J43" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K43" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L43" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M43" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N43" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O43" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P43" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q43" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R43" t="n">
-        <v>2509.74794869205</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>2509.74794869205</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T43" t="n">
-        <v>2270.828688255938</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U43" t="n">
-        <v>2270.828688255938</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V43" t="n">
-        <v>2270.828688255938</v>
+        <v>605.0874662854111</v>
       </c>
       <c r="W43" t="n">
-        <v>2270.828688255938</v>
+        <v>605.0874662854111</v>
       </c>
       <c r="X43" t="n">
-        <v>2270.828688255938</v>
+        <v>605.0874662854111</v>
       </c>
       <c r="Y43" t="n">
-        <v>2270.828688255938</v>
+        <v>378.7446979751531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1681.119990580574</v>
+        <v>1024.142071053413</v>
       </c>
       <c r="C44" t="n">
-        <v>1254.219260593874</v>
+        <v>597.2413410667127</v>
       </c>
       <c r="D44" t="n">
-        <v>1254.219260593874</v>
+        <v>173.948720251713</v>
       </c>
       <c r="E44" t="n">
-        <v>1151.612330528242</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F44" t="n">
-        <v>726.4881487176426</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G44" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
@@ -7654,7 +7654,7 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080623</v>
@@ -7663,37 +7663,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S44" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T44" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U44" t="n">
-        <v>2458.457769745855</v>
+        <v>2252.101783876848</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.968354872104</v>
+        <v>2252.101783876848</v>
       </c>
       <c r="W44" t="n">
-        <v>2100.968354872104</v>
+        <v>1855.710434177195</v>
       </c>
       <c r="X44" t="n">
-        <v>2100.968354872104</v>
+        <v>1443.990435344943</v>
       </c>
       <c r="Y44" t="n">
-        <v>2100.968354872104</v>
+        <v>1443.990435344943</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1296.682631392848</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C45" t="n">
-        <v>1179.176727910353</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>1075.336769425637</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E45" t="n">
-        <v>970.6348356985745</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F45" t="n">
-        <v>876.9890053814787</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H45" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I45" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J45" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K45" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L45" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P45" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q45" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R45" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S45" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T45" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U45" t="n">
-        <v>2130.274391720472</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V45" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W45" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X45" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.20544392206816</v>
+        <v>83.22627630711278</v>
       </c>
       <c r="C46" t="n">
-        <v>50.20544392206816</v>
+        <v>83.22627630711278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.20544392206816</v>
+        <v>83.22627630711278</v>
       </c>
       <c r="E46" t="n">
-        <v>50.20544392206816</v>
+        <v>83.22627630711278</v>
       </c>
       <c r="F46" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7845,13 +7845,13 @@
         <v>600.6425766887946</v>
       </c>
       <c r="W46" t="n">
-        <v>519.112108786521</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="X46" t="n">
-        <v>276.5482122323261</v>
+        <v>83.22627630711278</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.20544392206816</v>
+        <v>83.22627630711278</v>
       </c>
     </row>
   </sheetData>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.558192006706967</v>
+        <v>9.317728839503378</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>10.96800596494193</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>13.62548181171325</v>
       </c>
       <c r="F5" t="n">
-        <v>15.06609452848526</v>
+        <v>12.78125135058598</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.03641654712531528</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.413415416532764</v>
+        <v>12.90330721005592</v>
       </c>
       <c r="D8" t="n">
         <v>0.8413873365495945</v>
       </c>
       <c r="E8" t="n">
-        <v>11.98875497684407</v>
+        <v>3.498863183320914</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>44.01952534959577</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1615351102746</v>
+        <v>398.8095355363677</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.6698018695921</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.45829138693392</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2107538110959</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6524694095456</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>21.98203310754832</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>15.57402155975859</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>30.74938420103223</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>24.43048270176058</v>
       </c>
     </row>
     <row r="12">
@@ -23339,22 +23339,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>13.41739769621593</v>
       </c>
       <c r="D12" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>45.16282838418415</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>65.74138684175004</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>182.8682014225492</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>70.4275790494882</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>128.894210759349</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23433,10 +23433,10 @@
         <v>163.9277704489927</v>
       </c>
       <c r="H13" t="n">
-        <v>136.4313629941665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>78.72351363580546</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.59413806731187</v>
       </c>
       <c r="S13" t="n">
         <v>156.8161618607986</v>
@@ -23478,13 +23478,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>53.9501451587235</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>38.79646600571675</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>45.77830804393489</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,10 +23506,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>158.3987437619632</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>21.95612089346969</v>
+        <v>398.8095355363677</v>
       </c>
       <c r="H14" t="n">
         <v>279.6698018695921</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2107538110959</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6524694095456</v>
+        <v>205.3890269901106</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23563,7 +23563,7 @@
         <v>30.74938420103223</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.43048270176058</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>82.58015669937758</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8015588998678</v>
+        <v>92.68539292325191</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>45.16282838418415</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>65.74138684175004</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>137.2561117751268</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8682014225492</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23709,16 +23709,16 @@
         <v>238.057627995748</v>
       </c>
       <c r="U16" t="n">
-        <v>74.56399190510925</v>
+        <v>277.3462424023505</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>232.4107890451959</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>38.79646600571675</v>
       </c>
       <c r="C17" t="n">
-        <v>62.97391368299651</v>
+        <v>90.6992350693684</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>44.86375581072303</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>44.01952534959577</v>
       </c>
       <c r="G17" t="n">
-        <v>21.95612089346969</v>
+        <v>398.8095355363677</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>279.6698018695921</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.45829138693392</v>
       </c>
       <c r="T17" t="n">
         <v>212.2107538110959</v>
@@ -23794,7 +23794,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>15.57402155975859</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>70.44512453283231</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.31808107001368</v>
       </c>
       <c r="H18" t="n">
         <v>45.16282838418415</v>
@@ -23864,16 +23864,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>128.6451758722865</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8682014225492</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>16.59413806731187</v>
       </c>
       <c r="S19" t="n">
         <v>156.8161618607986</v>
@@ -23955,7 +23955,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>59.19250777186193</v>
+        <v>42.59836970455007</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>44.86375581072303</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>44.01952534959577</v>
       </c>
       <c r="G20" t="n">
-        <v>21.95612089346969</v>
+        <v>398.8095355363677</v>
       </c>
       <c r="H20" t="n">
         <v>279.6698018695921</v>
@@ -24022,22 +24022,22 @@
         <v>69.45829138693392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.2107538110959</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6524694095456</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>234.1927869186441</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>15.57402155975859</v>
       </c>
       <c r="X20" t="n">
-        <v>30.74938420103223</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>325.0038791367394</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>35.03580413889556</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>45.16282838418415</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>65.74138684175004</v>
       </c>
       <c r="T21" t="n">
-        <v>137.2561117751268</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>182.8682014225492</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>58.94623170245697</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>89.40122664246663</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.59413806731187</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>156.8161618607986</v>
       </c>
       <c r="T22" t="n">
-        <v>213.9280400397557</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3462424023505</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0611253815495</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>28.41240501789639</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -24378,7 +24378,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.2527378018481</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
         <v>150.5856664684936</v>
@@ -24420,13 +24420,13 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
-        <v>6.584476005448039</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>80.57329482690676</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.012519220714</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>279.0435336001412</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>50.72029723064247</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>135.6470943139038</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>70.38950818248648</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>42.04000209535667</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1656781107714</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
         <v>236.5300678317505</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>157.1701424739416</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>198.1791894948005</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>146.4632489393073</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.8276716490661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>198.1791894948005</v>
       </c>
       <c r="W34" t="n">
-        <v>114.8058575876407</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>287.9280185965205</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>328.5984702701318</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>65.72711542758847</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>196.1217220265347</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>379.7613422458008</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.012519220714</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>88.13248240870175</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>98.75667563256704</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>217.292899032469</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>391.2182380087213</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>134.4188046914828</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25788,19 +25788,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>81.41529260186577</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>133.2527378018481</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
         <v>150.5856664684936</v>
@@ -25845,7 +25845,7 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>242.4981196161526</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -25854,7 +25854,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>320.1363096886456</v>
+        <v>299.2113268872726</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>137.452532421991</v>
       </c>
       <c r="G46" t="n">
         <v>163.5702563680571</v>
@@ -26085,13 +26085,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>191.3887165659613</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>250149.9136412304</v>
+        <v>250149.9136412305</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>250149.9136412303</v>
+        <v>250149.9136412305</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>383801.032468414</v>
+        <v>383801.0324684139</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>383801.0324684139</v>
+        <v>383801.032468414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>383801.0324684141</v>
+        <v>383801.032468414</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>383801.032468414</v>
+        <v>383801.0324684139</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383801.0324684139</v>
+        <v>383801.032468414</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358608.8624752987</v>
+        <v>358608.862475299</v>
       </c>
       <c r="C2" t="n">
-        <v>360173.4157888069</v>
+        <v>360173.415788807</v>
       </c>
       <c r="D2" t="n">
         <v>362130.3717452867</v>
       </c>
       <c r="E2" t="n">
-        <v>138972.1742451279</v>
+        <v>138972.174245128</v>
       </c>
       <c r="F2" t="n">
         <v>138972.1742451279</v>
@@ -26343,13 +26343,13 @@
         <v>213222.7958157854</v>
       </c>
       <c r="L2" t="n">
-        <v>213222.7958157855</v>
+        <v>213222.7958157854</v>
       </c>
       <c r="M2" t="n">
         <v>213222.7958157854</v>
       </c>
       <c r="N2" t="n">
-        <v>213222.7958157855</v>
+        <v>213222.7958157854</v>
       </c>
       <c r="O2" t="n">
         <v>213222.7958157854</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51097.22904562252</v>
+        <v>51097.22904562249</v>
       </c>
       <c r="C3" t="n">
         <v>13052.44432012518</v>
@@ -26441,25 +26441,25 @@
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>30971.63296039977</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="J5" t="n">
         <v>50537.10295659396</v>
@@ -26505,13 +26505,13 @@
         <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="O5" t="n">
         <v>50537.10295659396</v>
       </c>
       <c r="P5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36798.17002050349</v>
+        <v>-36819.84124062998</v>
       </c>
       <c r="C6" t="n">
-        <v>4665.336139151361</v>
+        <v>4649.923132278849</v>
       </c>
       <c r="D6" t="n">
-        <v>7369.082425754939</v>
+        <v>7361.497242708236</v>
       </c>
       <c r="E6" t="n">
-        <v>-234185.4947828804</v>
+        <v>-235085.7127559278</v>
       </c>
       <c r="F6" t="n">
-        <v>107735.8471196868</v>
+        <v>106835.6291466394</v>
       </c>
       <c r="G6" t="n">
-        <v>107735.8471196868</v>
+        <v>106835.6291466394</v>
       </c>
       <c r="H6" t="n">
-        <v>107735.8471196869</v>
+        <v>106835.6291466394</v>
       </c>
       <c r="I6" t="n">
-        <v>-53663.41432715618</v>
+        <v>-54266.62981392095</v>
       </c>
       <c r="J6" t="n">
-        <v>162245.2390673375</v>
+        <v>161642.0235805727</v>
       </c>
       <c r="K6" t="n">
-        <v>160162.697344947</v>
+        <v>159559.4818581822</v>
       </c>
       <c r="L6" t="n">
-        <v>159682.2830320591</v>
+        <v>159079.0675452942</v>
       </c>
       <c r="M6" t="n">
-        <v>72871.93576965663</v>
+        <v>72268.72028289184</v>
       </c>
       <c r="N6" t="n">
-        <v>162245.2390673376</v>
+        <v>161642.0235805727</v>
       </c>
       <c r="O6" t="n">
-        <v>162245.2390673375</v>
+        <v>161642.0235805727</v>
       </c>
       <c r="P6" t="n">
-        <v>162245.2390673375</v>
+        <v>161642.0235805727</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>376.853414642898</v>
       </c>
       <c r="I4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="J4" t="n">
         <v>627.5680490258518</v>
@@ -26825,13 +26825,13 @@
         <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="O4" t="n">
         <v>627.5680490258518</v>
       </c>
       <c r="P4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>53.02671201573919</v>
       </c>
       <c r="C3" t="n">
-        <v>11.46302876524061</v>
+        <v>11.46302876524062</v>
       </c>
       <c r="D3" t="n">
         <v>12.87906878877681</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>250.7146343829539</v>
+        <v>250.7146343829537</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27399,13 +27399,13 @@
         <v>292.7065397078163</v>
       </c>
       <c r="I2" t="n">
-        <v>26.32956157919251</v>
+        <v>26.3295615791925</v>
       </c>
       <c r="J2" t="n">
         <v>11.3271920526384</v>
       </c>
       <c r="K2" t="n">
-        <v>8.648232478941662</v>
+        <v>8.648232478941665</v>
       </c>
       <c r="L2" t="n">
         <v>4.671789743482165</v>
@@ -27423,7 +27423,7 @@
         <v>6.920859413233046</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.10441994252907</v>
+        <v>13.10441994252908</v>
       </c>
       <c r="R2" t="n">
         <v>21.64193954842993</v>
@@ -27572,13 +27572,13 @@
         <v>7.586266198249906</v>
       </c>
       <c r="N4" t="n">
-        <v>6.116136330339108</v>
+        <v>6.11613633033911</v>
       </c>
       <c r="O4" t="n">
-        <v>8.983460966937349</v>
+        <v>8.983460966937351</v>
       </c>
       <c r="P4" t="n">
-        <v>10.81576169638986</v>
+        <v>10.81576169638987</v>
       </c>
       <c r="Q4" t="n">
         <v>16.61252925040833</v>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>7.259564101390278</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q5" t="n">
         <v>8.128025379424045</v>
@@ -27678,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>399.3928659771557</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27712,13 +27712,13 @@
         <v>92.97452028251483</v>
       </c>
       <c r="H6" t="n">
-        <v>51.50264919965579</v>
+        <v>48.82985078792108</v>
       </c>
       <c r="I6" t="n">
-        <v>11.39649556952178</v>
+        <v>3.30480692761402</v>
       </c>
       <c r="J6" t="n">
-        <v>5.418890230173044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>182.9113882128454</v>
       </c>
       <c r="V6" t="n">
-        <v>194.8317188302186</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>130.2042711183328</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258621</v>
+        <v>109.419432055562</v>
       </c>
       <c r="C9" t="n">
-        <v>100.2841594039899</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
         <v>84.58325162956771</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>99.56582061535839</v>
       </c>
       <c r="F9" t="n">
         <v>92.70937201392488</v>
@@ -27952,10 +27952,10 @@
         <v>51.2351047706663</v>
       </c>
       <c r="I9" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.888458418784966</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27976,16 +27976,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.504190801070983</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>77.41990205371728</v>
       </c>
       <c r="T9" t="n">
-        <v>121.5720560939172</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U9" t="n">
         <v>182.9095657031111</v>
@@ -28000,7 +28000,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>120.0776524899404</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28040,7 +28040,7 @@
         <v>4.755254677277751</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5871850422329361</v>
+        <v>1.176308884163522</v>
       </c>
       <c r="M10" t="n">
         <v>0.7054336060544593</v>
@@ -28058,7 +28058,7 @@
         <v>12.9368725197517</v>
       </c>
       <c r="R10" t="n">
-        <v>40.29501189884586</v>
+        <v>39.70588805691527</v>
       </c>
       <c r="S10" t="n">
         <v>166.0022870397414</v>
@@ -31047,13 +31047,13 @@
         <v>2.183155032889201</v>
       </c>
       <c r="I2" t="n">
-        <v>8.218340964770997</v>
+        <v>8.218340964770999</v>
       </c>
       <c r="J2" t="n">
         <v>18.09276743294812</v>
       </c>
       <c r="K2" t="n">
-        <v>27.11636831586768</v>
+        <v>27.11636831586767</v>
       </c>
       <c r="L2" t="n">
         <v>33.64025268914076</v>
@@ -31071,7 +31071,7 @@
         <v>30.65450239699825</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.02025466206897</v>
+        <v>23.02025466206896</v>
       </c>
       <c r="R2" t="n">
         <v>13.39071034636654</v>
@@ -31080,7 +31080,7 @@
         <v>4.857673166064953</v>
       </c>
       <c r="T2" t="n">
-        <v>0.933163545121199</v>
+        <v>0.9331635451211989</v>
       </c>
       <c r="U2" t="n">
         <v>0.01705381692968495</v>
@@ -31123,10 +31123,10 @@
         <v>0.1140574560338541</v>
       </c>
       <c r="H3" t="n">
-        <v>1.10155490432696</v>
+        <v>1.101554904326959</v>
       </c>
       <c r="I3" t="n">
-        <v>3.926978201165592</v>
+        <v>3.926978201165591</v>
       </c>
       <c r="J3" t="n">
         <v>10.77592833519847</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09562193970051329</v>
+        <v>0.09562193970051328</v>
       </c>
       <c r="H4" t="n">
         <v>0.8501659729736551</v>
       </c>
       <c r="I4" t="n">
-        <v>2.87561251390271</v>
+        <v>2.875612513902709</v>
       </c>
       <c r="J4" t="n">
         <v>6.760471136826289</v>
@@ -31378,10 +31378,10 @@
         <v>31.18846915423574</v>
       </c>
       <c r="N6" t="n">
-        <v>24.87861394041439</v>
+        <v>29.43471685544942</v>
       </c>
       <c r="O6" t="n">
-        <v>31.26357836412998</v>
+        <v>26.70747544909495</v>
       </c>
       <c r="P6" t="n">
         <v>26.48824843511603</v>
@@ -31606,7 +31606,7 @@
         <v>15.72265591454837</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575216</v>
       </c>
       <c r="L9" t="n">
         <v>36.13342375236605</v>
@@ -31615,10 +31615,10 @@
         <v>41.31508778262807</v>
       </c>
       <c r="N9" t="n">
-        <v>39.56133548384176</v>
+        <v>30.74023446979461</v>
       </c>
       <c r="O9" t="n">
-        <v>35.24677151733948</v>
+        <v>39.5945831389678</v>
       </c>
       <c r="P9" t="n">
         <v>31.77814368913268</v>
@@ -34953,28 +34953,28 @@
         <v>6.290631848041471</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>6.965429774499166</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>8.091688641907758</v>
       </c>
       <c r="N6" t="n">
-        <v>3.535585726872722</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O6" t="n">
-        <v>8.091688641907758</v>
+        <v>3.535585726872726</v>
       </c>
       <c r="P6" t="n">
         <v>4.717407230287364</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.473289392418824</v>
       </c>
       <c r="L9" t="n">
         <v>13.61833703813649</v>
@@ -35263,10 +35263,10 @@
         <v>18.21830727030009</v>
       </c>
       <c r="N9" t="n">
-        <v>18.21830727030009</v>
+        <v>9.397206256252952</v>
       </c>
       <c r="O9" t="n">
-        <v>12.07488179511726</v>
+        <v>16.42269341674558</v>
       </c>
       <c r="P9" t="n">
         <v>10.00730248430401</v>
@@ -38022,7 +38022,7 @@
         <v>254.6609673883984</v>
       </c>
       <c r="L44" t="n">
-        <v>321.9865560840997</v>
+        <v>321.9865560840996</v>
       </c>
       <c r="M44" t="n">
         <v>363.4703500581238</v>
